--- a/stock_historical_data/1wk/TATAMOTORS.NS.xlsx
+++ b/stock_historical_data/1wk/TATAMOTORS.NS.xlsx
@@ -98189,7 +98189,9 @@
       <c r="Q1745" t="n">
         <v>0</v>
       </c>
-      <c r="R1745" t="inlineStr"/>
+      <c r="R1745" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/TATAMOTORS.NS.xlsx
+++ b/stock_historical_data/1wk/TATAMOTORS.NS.xlsx
@@ -93005,7 +93005,9 @@
       <c r="P1746" t="n">
         <v>0</v>
       </c>
-      <c r="Q1746" t="inlineStr"/>
+      <c r="Q1746" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/TATAMOTORS.NS.xlsx
+++ b/stock_historical_data/1wk/TATAMOTORS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1747"/>
+  <dimension ref="A1:R1748"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98301,7 +98301,63 @@
       <c r="Q1747" t="n">
         <v>0</v>
       </c>
-      <c r="R1747" t="inlineStr"/>
+      <c r="R1747" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1748">
+      <c r="A1748" s="2" t="n">
+        <v>45454</v>
+      </c>
+      <c r="B1748" t="n">
+        <v>994.5</v>
+      </c>
+      <c r="C1748" t="n">
+        <v>1010.25</v>
+      </c>
+      <c r="D1748" t="n">
+        <v>987</v>
+      </c>
+      <c r="E1748" t="n">
+        <v>988.7000122070312</v>
+      </c>
+      <c r="F1748" t="n">
+        <v>988.7000122070312</v>
+      </c>
+      <c r="G1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1748" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1748" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1748" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1748" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1748" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1748" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/TATAMOTORS.NS.xlsx
+++ b/stock_historical_data/1wk/TATAMOTORS.NS.xlsx
@@ -98357,7 +98357,9 @@
       <c r="Q1748" t="n">
         <v>2</v>
       </c>
-      <c r="R1748" t="inlineStr"/>
+      <c r="R1748" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/TATAMOTORS.NS.xlsx
+++ b/stock_historical_data/1wk/TATAMOTORS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1748"/>
+  <dimension ref="A1:R1750"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98361,6 +98361,114 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1749">
+      <c r="A1749" s="2" t="n">
+        <v>45461</v>
+      </c>
+      <c r="B1749" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C1749" t="n">
+        <v>1003.549987792969</v>
+      </c>
+      <c r="D1749" t="n">
+        <v>950.0499877929688</v>
+      </c>
+      <c r="E1749" t="n">
+        <v>958.0499877929688</v>
+      </c>
+      <c r="F1749" t="n">
+        <v>958.0499877929688</v>
+      </c>
+      <c r="G1749" t="n">
+        <v>45709677</v>
+      </c>
+      <c r="H1749" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1749" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1749" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1749" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1749" t="inlineStr"/>
+    </row>
+    <row r="1750">
+      <c r="A1750" s="2" t="n">
+        <v>45468</v>
+      </c>
+      <c r="B1750" t="n">
+        <v>960</v>
+      </c>
+      <c r="C1750" t="n">
+        <v>998.5</v>
+      </c>
+      <c r="D1750" t="n">
+        <v>948.0499877929688</v>
+      </c>
+      <c r="E1750" t="n">
+        <v>989.75</v>
+      </c>
+      <c r="F1750" t="n">
+        <v>989.75</v>
+      </c>
+      <c r="G1750" t="n">
+        <v>56617825</v>
+      </c>
+      <c r="H1750" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1750" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1750" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1750" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1750" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1wk/TATAMOTORS.NS.xlsx
+++ b/stock_historical_data/1wk/TATAMOTORS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1750"/>
+  <dimension ref="A1:R1760"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98237,7 +98237,7 @@
         <v>23</v>
       </c>
       <c r="O1746" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1746" t="n">
         <v>0</v>
@@ -98413,7 +98413,9 @@
       <c r="Q1749" t="n">
         <v>0</v>
       </c>
-      <c r="R1749" t="inlineStr"/>
+      <c r="R1749" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1750">
       <c r="A1750" s="2" t="n">
@@ -98467,7 +98469,549 @@
       <c r="Q1750" t="n">
         <v>0</v>
       </c>
-      <c r="R1750" t="inlineStr"/>
+      <c r="R1750" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1751">
+      <c r="A1751" s="2" t="n">
+        <v>45475</v>
+      </c>
+      <c r="B1751" t="n">
+        <v>1004.049987792969</v>
+      </c>
+      <c r="C1751" t="n">
+        <v>1016.599975585938</v>
+      </c>
+      <c r="D1751" t="n">
+        <v>973.5</v>
+      </c>
+      <c r="E1751" t="n">
+        <v>1002.599975585938</v>
+      </c>
+      <c r="F1751" t="n">
+        <v>1002.599975585938</v>
+      </c>
+      <c r="G1751" t="n">
+        <v>54132682</v>
+      </c>
+      <c r="H1751" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1751" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1751" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1751" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1751" t="inlineStr"/>
+    </row>
+    <row r="1752">
+      <c r="A1752" s="2" t="n">
+        <v>45482</v>
+      </c>
+      <c r="B1752" t="n">
+        <v>1000.950012207031</v>
+      </c>
+      <c r="C1752" t="n">
+        <v>1029.800048828125</v>
+      </c>
+      <c r="D1752" t="n">
+        <v>986.0499877929688</v>
+      </c>
+      <c r="E1752" t="n">
+        <v>1024.449951171875</v>
+      </c>
+      <c r="F1752" t="n">
+        <v>1024.449951171875</v>
+      </c>
+      <c r="G1752" t="n">
+        <v>49530812</v>
+      </c>
+      <c r="H1752" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1752" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1752" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1752" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1752" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1752" t="inlineStr"/>
+    </row>
+    <row r="1753">
+      <c r="A1753" s="2" t="n">
+        <v>45489</v>
+      </c>
+      <c r="B1753" t="n">
+        <v>1025.5</v>
+      </c>
+      <c r="C1753" t="n">
+        <v>1029.599975585938</v>
+      </c>
+      <c r="D1753" t="n">
+        <v>976.5499877929688</v>
+      </c>
+      <c r="E1753" t="n">
+        <v>1003.150024414062</v>
+      </c>
+      <c r="F1753" t="n">
+        <v>1003.150024414062</v>
+      </c>
+      <c r="G1753" t="n">
+        <v>27631255</v>
+      </c>
+      <c r="H1753" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1753" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1753" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1753" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1753" t="inlineStr"/>
+    </row>
+    <row r="1754">
+      <c r="A1754" s="2" t="n">
+        <v>45496</v>
+      </c>
+      <c r="B1754" t="n">
+        <v>1007.900024414062</v>
+      </c>
+      <c r="C1754" t="n">
+        <v>1139.900024414062</v>
+      </c>
+      <c r="D1754" t="n">
+        <v>967.2000122070312</v>
+      </c>
+      <c r="E1754" t="n">
+        <v>1124</v>
+      </c>
+      <c r="F1754" t="n">
+        <v>1124</v>
+      </c>
+      <c r="G1754" t="n">
+        <v>87703579</v>
+      </c>
+      <c r="H1754" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1754" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1754" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1754" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1754" t="inlineStr"/>
+    </row>
+    <row r="1755">
+      <c r="A1755" s="2" t="n">
+        <v>45503</v>
+      </c>
+      <c r="B1755" t="n">
+        <v>1125.800048828125</v>
+      </c>
+      <c r="C1755" t="n">
+        <v>1179</v>
+      </c>
+      <c r="D1755" t="n">
+        <v>1014.049987792969</v>
+      </c>
+      <c r="E1755" t="n">
+        <v>1016.450012207031</v>
+      </c>
+      <c r="F1755" t="n">
+        <v>1016.450012207031</v>
+      </c>
+      <c r="G1755" t="n">
+        <v>102447831</v>
+      </c>
+      <c r="H1755" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1755" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1755" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1755" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1755" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1755" t="inlineStr"/>
+    </row>
+    <row r="1756">
+      <c r="A1756" s="2" t="n">
+        <v>45510</v>
+      </c>
+      <c r="B1756" t="n">
+        <v>1030</v>
+      </c>
+      <c r="C1756" t="n">
+        <v>1082.949951171875</v>
+      </c>
+      <c r="D1756" t="n">
+        <v>1008.400024414062</v>
+      </c>
+      <c r="E1756" t="n">
+        <v>1076.150024414062</v>
+      </c>
+      <c r="F1756" t="n">
+        <v>1076.150024414062</v>
+      </c>
+      <c r="G1756" t="n">
+        <v>72988944</v>
+      </c>
+      <c r="H1756" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1756" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1756" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1756" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1756" t="inlineStr"/>
+    </row>
+    <row r="1757">
+      <c r="A1757" s="2" t="n">
+        <v>45517</v>
+      </c>
+      <c r="B1757" t="n">
+        <v>1074.849975585938</v>
+      </c>
+      <c r="C1757" t="n">
+        <v>1107</v>
+      </c>
+      <c r="D1757" t="n">
+        <v>1047</v>
+      </c>
+      <c r="E1757" t="n">
+        <v>1087.699951171875</v>
+      </c>
+      <c r="F1757" t="n">
+        <v>1087.699951171875</v>
+      </c>
+      <c r="G1757" t="n">
+        <v>34067152</v>
+      </c>
+      <c r="H1757" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1757" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1757" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1757" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1757" t="inlineStr"/>
+    </row>
+    <row r="1758">
+      <c r="A1758" s="2" t="n">
+        <v>45524</v>
+      </c>
+      <c r="B1758" t="n">
+        <v>1097</v>
+      </c>
+      <c r="C1758" t="n">
+        <v>1103.349975585938</v>
+      </c>
+      <c r="D1758" t="n">
+        <v>1064.949951171875</v>
+      </c>
+      <c r="E1758" t="n">
+        <v>1092.400024414062</v>
+      </c>
+      <c r="F1758" t="n">
+        <v>1092.400024414062</v>
+      </c>
+      <c r="G1758" t="n">
+        <v>39467769</v>
+      </c>
+      <c r="H1758" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1758" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1758" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1758" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1758" t="inlineStr"/>
+    </row>
+    <row r="1759">
+      <c r="A1759" s="2" t="n">
+        <v>45531</v>
+      </c>
+      <c r="B1759" t="n">
+        <v>1093.050048828125</v>
+      </c>
+      <c r="C1759" t="n">
+        <v>1142</v>
+      </c>
+      <c r="D1759" t="n">
+        <v>1066</v>
+      </c>
+      <c r="E1759" t="n">
+        <v>1092.650024414062</v>
+      </c>
+      <c r="F1759" t="n">
+        <v>1092.650024414062</v>
+      </c>
+      <c r="G1759" t="n">
+        <v>83381060</v>
+      </c>
+      <c r="H1759" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1759" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1759" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1759" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1759" t="inlineStr"/>
+    </row>
+    <row r="1760">
+      <c r="A1760" s="2" t="n">
+        <v>45538</v>
+      </c>
+      <c r="B1760" t="n">
+        <v>1097.599975585938</v>
+      </c>
+      <c r="C1760" t="n">
+        <v>1100</v>
+      </c>
+      <c r="D1760" t="n">
+        <v>1040.5</v>
+      </c>
+      <c r="E1760" t="n">
+        <v>1049.349975585938</v>
+      </c>
+      <c r="F1760" t="n">
+        <v>1049.349975585938</v>
+      </c>
+      <c r="G1760" t="n">
+        <v>26370629</v>
+      </c>
+      <c r="H1760" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1760" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1760" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1760" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1760" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/TATAMOTORS.NS.xlsx
+++ b/stock_historical_data/1wk/TATAMOTORS.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1760"/>
+  <dimension ref="A1:R1789"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4723,7 +4723,7 @@
         <v>0</v>
       </c>
       <c r="Q76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R76" t="n">
         <v>0</v>
@@ -5003,7 +5003,7 @@
         <v>0</v>
       </c>
       <c r="Q81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R81" t="n">
         <v>0</v>
@@ -98525,7 +98525,9 @@
       <c r="Q1751" t="n">
         <v>0</v>
       </c>
-      <c r="R1751" t="inlineStr"/>
+      <c r="R1751" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1752">
       <c r="A1752" s="2" t="n">
@@ -98579,7 +98581,9 @@
       <c r="Q1752" t="n">
         <v>1</v>
       </c>
-      <c r="R1752" t="inlineStr"/>
+      <c r="R1752" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1753">
       <c r="A1753" s="2" t="n">
@@ -98633,7 +98637,9 @@
       <c r="Q1753" t="n">
         <v>0</v>
       </c>
-      <c r="R1753" t="inlineStr"/>
+      <c r="R1753" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1754">
       <c r="A1754" s="2" t="n">
@@ -98687,7 +98693,9 @@
       <c r="Q1754" t="n">
         <v>0</v>
       </c>
-      <c r="R1754" t="inlineStr"/>
+      <c r="R1754" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1755">
       <c r="A1755" s="2" t="n">
@@ -98741,7 +98749,9 @@
       <c r="Q1755" t="n">
         <v>0</v>
       </c>
-      <c r="R1755" t="inlineStr"/>
+      <c r="R1755" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1756">
       <c r="A1756" s="2" t="n">
@@ -98795,7 +98805,9 @@
       <c r="Q1756" t="n">
         <v>0</v>
       </c>
-      <c r="R1756" t="inlineStr"/>
+      <c r="R1756" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1757">
       <c r="A1757" s="2" t="n">
@@ -98849,7 +98861,9 @@
       <c r="Q1757" t="n">
         <v>0</v>
       </c>
-      <c r="R1757" t="inlineStr"/>
+      <c r="R1757" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1758">
       <c r="A1758" s="2" t="n">
@@ -98903,7 +98917,9 @@
       <c r="Q1758" t="n">
         <v>0</v>
       </c>
-      <c r="R1758" t="inlineStr"/>
+      <c r="R1758" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1759">
       <c r="A1759" s="2" t="n">
@@ -98957,7 +98973,9 @@
       <c r="Q1759" t="n">
         <v>0</v>
       </c>
-      <c r="R1759" t="inlineStr"/>
+      <c r="R1759" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1760">
       <c r="A1760" s="2" t="n">
@@ -99011,7 +99029,1517 @@
       <c r="Q1760" t="n">
         <v>0</v>
       </c>
-      <c r="R1760" t="inlineStr"/>
+      <c r="R1760" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1761">
+      <c r="A1761" s="2" t="n">
+        <v>45545</v>
+      </c>
+      <c r="B1761" t="n">
+        <v>1049</v>
+      </c>
+      <c r="C1761" t="n">
+        <v>1049</v>
+      </c>
+      <c r="D1761" t="n">
+        <v>958</v>
+      </c>
+      <c r="E1761" t="n">
+        <v>988.4000244140625</v>
+      </c>
+      <c r="F1761" t="inlineStr"/>
+      <c r="G1761" t="n">
+        <v>87775435</v>
+      </c>
+      <c r="H1761" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1761" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1761" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1761" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1761" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1761" t="inlineStr"/>
+    </row>
+    <row r="1762">
+      <c r="A1762" s="2" t="n">
+        <v>45552</v>
+      </c>
+      <c r="B1762" t="n">
+        <v>995</v>
+      </c>
+      <c r="C1762" t="n">
+        <v>995</v>
+      </c>
+      <c r="D1762" t="n">
+        <v>949.2000122070312</v>
+      </c>
+      <c r="E1762" t="n">
+        <v>971.7999877929688</v>
+      </c>
+      <c r="F1762" t="inlineStr"/>
+      <c r="G1762" t="n">
+        <v>97047092</v>
+      </c>
+      <c r="H1762" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1762" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1762" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1762" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1762" t="inlineStr"/>
+    </row>
+    <row r="1763">
+      <c r="A1763" s="2" t="n">
+        <v>45559</v>
+      </c>
+      <c r="B1763" t="n">
+        <v>974</v>
+      </c>
+      <c r="C1763" t="n">
+        <v>1000.400024414062</v>
+      </c>
+      <c r="D1763" t="n">
+        <v>959.25</v>
+      </c>
+      <c r="E1763" t="n">
+        <v>974.6500244140625</v>
+      </c>
+      <c r="F1763" t="inlineStr"/>
+      <c r="G1763" t="n">
+        <v>69940443</v>
+      </c>
+      <c r="H1763" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1763" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1763" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1763" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1763" t="inlineStr"/>
+    </row>
+    <row r="1764">
+      <c r="A1764" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B1764" t="n">
+        <v>976.9000244140625</v>
+      </c>
+      <c r="C1764" t="n">
+        <v>984.5</v>
+      </c>
+      <c r="D1764" t="n">
+        <v>915</v>
+      </c>
+      <c r="E1764" t="n">
+        <v>927.8499755859375</v>
+      </c>
+      <c r="F1764" t="inlineStr"/>
+      <c r="G1764" t="n">
+        <v>65464024</v>
+      </c>
+      <c r="H1764" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1764" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1764" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1764" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1764" t="inlineStr"/>
+    </row>
+    <row r="1765">
+      <c r="A1765" s="2" t="n">
+        <v>45573</v>
+      </c>
+      <c r="B1765" t="n">
+        <v>916</v>
+      </c>
+      <c r="C1765" t="n">
+        <v>948.4500122070312</v>
+      </c>
+      <c r="D1765" t="n">
+        <v>893.8499755859375</v>
+      </c>
+      <c r="E1765" t="n">
+        <v>928.25</v>
+      </c>
+      <c r="F1765" t="inlineStr"/>
+      <c r="G1765" t="n">
+        <v>56185652</v>
+      </c>
+      <c r="H1765" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1765" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1765" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1765" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1765" t="inlineStr"/>
+    </row>
+    <row r="1766">
+      <c r="A1766" s="2" t="n">
+        <v>45580</v>
+      </c>
+      <c r="B1766" t="n">
+        <v>932.9500122070312</v>
+      </c>
+      <c r="C1766" t="n">
+        <v>935.3499755859375</v>
+      </c>
+      <c r="D1766" t="n">
+        <v>886.7999877929688</v>
+      </c>
+      <c r="E1766" t="n">
+        <v>903.2999877929688</v>
+      </c>
+      <c r="F1766" t="inlineStr"/>
+      <c r="G1766" t="n">
+        <v>52140231</v>
+      </c>
+      <c r="H1766" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1766" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1766" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1766" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1766" t="inlineStr"/>
+    </row>
+    <row r="1767">
+      <c r="A1767" s="2" t="n">
+        <v>45587</v>
+      </c>
+      <c r="B1767" t="n">
+        <v>905</v>
+      </c>
+      <c r="C1767" t="n">
+        <v>906.0999755859375</v>
+      </c>
+      <c r="D1767" t="n">
+        <v>857.2999877929688</v>
+      </c>
+      <c r="E1767" t="n">
+        <v>878.4500122070312</v>
+      </c>
+      <c r="F1767" t="inlineStr"/>
+      <c r="G1767" t="n">
+        <v>49383812</v>
+      </c>
+      <c r="H1767" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1767" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1767" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1767" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1767" t="inlineStr"/>
+    </row>
+    <row r="1768">
+      <c r="A1768" s="2" t="n">
+        <v>45594</v>
+      </c>
+      <c r="B1768" t="n">
+        <v>880.25</v>
+      </c>
+      <c r="C1768" t="n">
+        <v>882.5</v>
+      </c>
+      <c r="D1768" t="n">
+        <v>814.5</v>
+      </c>
+      <c r="E1768" t="n">
+        <v>824.0999755859375</v>
+      </c>
+      <c r="F1768" t="inlineStr"/>
+      <c r="G1768" t="n">
+        <v>70071469</v>
+      </c>
+      <c r="H1768" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1768" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1768" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1768" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1768" t="inlineStr"/>
+    </row>
+    <row r="1769">
+      <c r="A1769" s="2" t="n">
+        <v>45601</v>
+      </c>
+      <c r="B1769" t="n">
+        <v>821.5</v>
+      </c>
+      <c r="C1769" t="n">
+        <v>843.9000244140625</v>
+      </c>
+      <c r="D1769" t="n">
+        <v>792</v>
+      </c>
+      <c r="E1769" t="n">
+        <v>804.7000122070312</v>
+      </c>
+      <c r="F1769" t="inlineStr"/>
+      <c r="G1769" t="n">
+        <v>77692317</v>
+      </c>
+      <c r="H1769" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1769" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1769" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1769" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1769" t="inlineStr"/>
+    </row>
+    <row r="1770">
+      <c r="A1770" s="2" t="n">
+        <v>45608</v>
+      </c>
+      <c r="B1770" t="n">
+        <v>806</v>
+      </c>
+      <c r="C1770" t="n">
+        <v>813.0999755859375</v>
+      </c>
+      <c r="D1770" t="n">
+        <v>759.2000122070312</v>
+      </c>
+      <c r="E1770" t="n">
+        <v>771.9000244140625</v>
+      </c>
+      <c r="F1770" t="inlineStr"/>
+      <c r="G1770" t="n">
+        <v>59995298</v>
+      </c>
+      <c r="H1770" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1770" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1770" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1770" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1770" t="inlineStr"/>
+    </row>
+    <row r="1771">
+      <c r="A1771" s="2" t="n">
+        <v>45615</v>
+      </c>
+      <c r="B1771" t="n">
+        <v>771.9000244140625</v>
+      </c>
+      <c r="C1771" t="n">
+        <v>810.2000122070312</v>
+      </c>
+      <c r="D1771" t="n">
+        <v>766.25</v>
+      </c>
+      <c r="E1771" t="n">
+        <v>796.5999755859375</v>
+      </c>
+      <c r="F1771" t="inlineStr"/>
+      <c r="G1771" t="n">
+        <v>57935971</v>
+      </c>
+      <c r="H1771" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1771" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1771" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1771" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1771" t="inlineStr"/>
+    </row>
+    <row r="1772">
+      <c r="A1772" s="2" t="n">
+        <v>45622</v>
+      </c>
+      <c r="B1772" t="n">
+        <v>797.1500244140625</v>
+      </c>
+      <c r="C1772" t="n">
+        <v>801.7999877929688</v>
+      </c>
+      <c r="D1772" t="n">
+        <v>777.0499877929688</v>
+      </c>
+      <c r="E1772" t="n">
+        <v>790.0499877929688</v>
+      </c>
+      <c r="F1772" t="inlineStr"/>
+      <c r="G1772" t="n">
+        <v>50049081</v>
+      </c>
+      <c r="H1772" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1772" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1772" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1772" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1772" t="inlineStr"/>
+    </row>
+    <row r="1773">
+      <c r="A1773" s="2" t="n">
+        <v>45629</v>
+      </c>
+      <c r="B1773" t="n">
+        <v>795</v>
+      </c>
+      <c r="C1773" t="n">
+        <v>820.3499755859375</v>
+      </c>
+      <c r="D1773" t="n">
+        <v>781</v>
+      </c>
+      <c r="E1773" t="n">
+        <v>798.75</v>
+      </c>
+      <c r="F1773" t="inlineStr"/>
+      <c r="G1773" t="n">
+        <v>69725965</v>
+      </c>
+      <c r="H1773" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1773" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1773" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1773" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1773" t="inlineStr"/>
+    </row>
+    <row r="1774">
+      <c r="A1774" s="2" t="n">
+        <v>45636</v>
+      </c>
+      <c r="B1774" t="n">
+        <v>804.7999877929688</v>
+      </c>
+      <c r="C1774" t="n">
+        <v>810.4500122070312</v>
+      </c>
+      <c r="D1774" t="n">
+        <v>775</v>
+      </c>
+      <c r="E1774" t="n">
+        <v>784.7999877929688</v>
+      </c>
+      <c r="F1774" t="inlineStr"/>
+      <c r="G1774" t="n">
+        <v>55596427</v>
+      </c>
+      <c r="H1774" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1774" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1774" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1774" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1774" t="inlineStr"/>
+    </row>
+    <row r="1775">
+      <c r="A1775" s="2" t="n">
+        <v>45643</v>
+      </c>
+      <c r="B1775" t="n">
+        <v>785.5</v>
+      </c>
+      <c r="C1775" t="n">
+        <v>796.3499755859375</v>
+      </c>
+      <c r="D1775" t="n">
+        <v>717.7000122070312</v>
+      </c>
+      <c r="E1775" t="n">
+        <v>722.2000122070312</v>
+      </c>
+      <c r="F1775" t="inlineStr"/>
+      <c r="G1775" t="n">
+        <v>74091639</v>
+      </c>
+      <c r="H1775" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1775" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1775" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1775" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1775" t="inlineStr"/>
+    </row>
+    <row r="1776">
+      <c r="A1776" s="2" t="n">
+        <v>45650</v>
+      </c>
+      <c r="B1776" t="n">
+        <v>723.5</v>
+      </c>
+      <c r="C1776" t="n">
+        <v>766.8499755859375</v>
+      </c>
+      <c r="D1776" t="n">
+        <v>722.5</v>
+      </c>
+      <c r="E1776" t="n">
+        <v>733.6500244140625</v>
+      </c>
+      <c r="F1776" t="inlineStr"/>
+      <c r="G1776" t="n">
+        <v>55173042</v>
+      </c>
+      <c r="H1776" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1776" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1776" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1776" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1776" t="inlineStr"/>
+    </row>
+    <row r="1777">
+      <c r="A1777" s="2" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B1777" t="n">
+        <v>733.6500244140625</v>
+      </c>
+      <c r="C1777" t="n">
+        <v>800.5999755859375</v>
+      </c>
+      <c r="D1777" t="n">
+        <v>732.75</v>
+      </c>
+      <c r="E1777" t="n">
+        <v>776.25</v>
+      </c>
+      <c r="F1777" t="inlineStr"/>
+      <c r="G1777" t="n">
+        <v>71900698</v>
+      </c>
+      <c r="H1777" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1777" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1777" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1777" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1777" t="inlineStr"/>
+    </row>
+    <row r="1778">
+      <c r="A1778" s="2" t="n">
+        <v>45664</v>
+      </c>
+      <c r="B1778" t="n">
+        <v>776</v>
+      </c>
+      <c r="C1778" t="n">
+        <v>810</v>
+      </c>
+      <c r="D1778" t="n">
+        <v>748.7999877929688</v>
+      </c>
+      <c r="E1778" t="n">
+        <v>751</v>
+      </c>
+      <c r="F1778" t="inlineStr"/>
+      <c r="G1778" t="n">
+        <v>68731681</v>
+      </c>
+      <c r="H1778" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1778" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1778" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1778" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1778" t="inlineStr"/>
+    </row>
+    <row r="1779">
+      <c r="A1779" s="2" t="n">
+        <v>45671</v>
+      </c>
+      <c r="B1779" t="n">
+        <v>751.5</v>
+      </c>
+      <c r="C1779" t="n">
+        <v>785.5</v>
+      </c>
+      <c r="D1779" t="n">
+        <v>751.5</v>
+      </c>
+      <c r="E1779" t="n">
+        <v>774.3499755859375</v>
+      </c>
+      <c r="F1779" t="inlineStr"/>
+      <c r="G1779" t="n">
+        <v>47521466</v>
+      </c>
+      <c r="H1779" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1779" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1779" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1779" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1779" t="inlineStr"/>
+    </row>
+    <row r="1780">
+      <c r="A1780" s="2" t="n">
+        <v>45678</v>
+      </c>
+      <c r="B1780" t="n">
+        <v>775</v>
+      </c>
+      <c r="C1780" t="n">
+        <v>786.6500244140625</v>
+      </c>
+      <c r="D1780" t="n">
+        <v>709.2999877929688</v>
+      </c>
+      <c r="E1780" t="n">
+        <v>713.0499877929688</v>
+      </c>
+      <c r="F1780" t="inlineStr"/>
+      <c r="G1780" t="n">
+        <v>55629497</v>
+      </c>
+      <c r="H1780" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1780" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1780" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1780" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1780" t="inlineStr"/>
+    </row>
+    <row r="1781">
+      <c r="A1781" s="2" t="n">
+        <v>45685</v>
+      </c>
+      <c r="B1781" t="n">
+        <v>716.5</v>
+      </c>
+      <c r="C1781" t="n">
+        <v>755</v>
+      </c>
+      <c r="D1781" t="n">
+        <v>683.2000122070312</v>
+      </c>
+      <c r="E1781" t="n">
+        <v>687.4500122070312</v>
+      </c>
+      <c r="F1781" t="inlineStr"/>
+      <c r="G1781" t="n">
+        <v>139009025</v>
+      </c>
+      <c r="H1781" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1781" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1781" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1781" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1781" t="inlineStr"/>
+    </row>
+    <row r="1782">
+      <c r="A1782" s="2" t="n">
+        <v>45692</v>
+      </c>
+      <c r="B1782" t="n">
+        <v>696.2999877929688</v>
+      </c>
+      <c r="C1782" t="n">
+        <v>725.4500122070312</v>
+      </c>
+      <c r="D1782" t="n">
+        <v>693.0499877929688</v>
+      </c>
+      <c r="E1782" t="n">
+        <v>696</v>
+      </c>
+      <c r="F1782" t="inlineStr"/>
+      <c r="G1782" t="n">
+        <v>62957352</v>
+      </c>
+      <c r="H1782" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1782" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1782" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1782" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1782" t="inlineStr"/>
+    </row>
+    <row r="1783">
+      <c r="A1783" s="2" t="n">
+        <v>45699</v>
+      </c>
+      <c r="B1783" t="n">
+        <v>696</v>
+      </c>
+      <c r="C1783" t="n">
+        <v>697</v>
+      </c>
+      <c r="D1783" t="n">
+        <v>667.0499877929688</v>
+      </c>
+      <c r="E1783" t="n">
+        <v>686.5999755859375</v>
+      </c>
+      <c r="F1783" t="inlineStr"/>
+      <c r="G1783" t="n">
+        <v>53024885</v>
+      </c>
+      <c r="H1783" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1783" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1783" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1783" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1783" t="inlineStr"/>
+    </row>
+    <row r="1784">
+      <c r="A1784" s="2" t="n">
+        <v>45706</v>
+      </c>
+      <c r="B1784" t="n">
+        <v>686.5999755859375</v>
+      </c>
+      <c r="C1784" t="n">
+        <v>692.8499755859375</v>
+      </c>
+      <c r="D1784" t="n">
+        <v>666</v>
+      </c>
+      <c r="E1784" t="n">
+        <v>668.25</v>
+      </c>
+      <c r="F1784" t="inlineStr"/>
+      <c r="G1784" t="n">
+        <v>49909586</v>
+      </c>
+      <c r="H1784" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1784" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1784" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1784" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1784" t="inlineStr"/>
+    </row>
+    <row r="1785">
+      <c r="A1785" s="2" t="n">
+        <v>45713</v>
+      </c>
+      <c r="B1785" t="n">
+        <v>667.75</v>
+      </c>
+      <c r="C1785" t="n">
+        <v>672.5</v>
+      </c>
+      <c r="D1785" t="n">
+        <v>606.2999877929688</v>
+      </c>
+      <c r="E1785" t="n">
+        <v>621.1500244140625</v>
+      </c>
+      <c r="F1785" t="inlineStr"/>
+      <c r="G1785" t="n">
+        <v>61373433</v>
+      </c>
+      <c r="H1785" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1785" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1785" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1785" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1785" t="inlineStr"/>
+    </row>
+    <row r="1786">
+      <c r="A1786" s="2" t="n">
+        <v>45720</v>
+      </c>
+      <c r="B1786" t="n">
+        <v>613.4500122070312</v>
+      </c>
+      <c r="C1786" t="n">
+        <v>655.9500122070312</v>
+      </c>
+      <c r="D1786" t="n">
+        <v>613</v>
+      </c>
+      <c r="E1786" t="n">
+        <v>648.1500244140625</v>
+      </c>
+      <c r="F1786" t="inlineStr"/>
+      <c r="G1786" t="n">
+        <v>61675403</v>
+      </c>
+      <c r="H1786" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1786" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1786" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1786" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1786" t="inlineStr"/>
+    </row>
+    <row r="1787">
+      <c r="A1787" s="2" t="n">
+        <v>45727</v>
+      </c>
+      <c r="B1787" t="n">
+        <v>640</v>
+      </c>
+      <c r="C1787" t="n">
+        <v>671.9000244140625</v>
+      </c>
+      <c r="D1787" t="n">
+        <v>638.4500122070312</v>
+      </c>
+      <c r="E1787" t="n">
+        <v>661.0499877929688</v>
+      </c>
+      <c r="F1787" t="inlineStr"/>
+      <c r="G1787" t="n">
+        <v>51446278</v>
+      </c>
+      <c r="H1787" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1787" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1787" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1787" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1787" t="inlineStr"/>
+    </row>
+    <row r="1788">
+      <c r="A1788" s="2" t="n">
+        <v>45734</v>
+      </c>
+      <c r="B1788" t="n">
+        <v>661.0499877929688</v>
+      </c>
+      <c r="C1788" t="n">
+        <v>717.5</v>
+      </c>
+      <c r="D1788" t="n">
+        <v>661.0499877929688</v>
+      </c>
+      <c r="E1788" t="n">
+        <v>713.5</v>
+      </c>
+      <c r="F1788" t="inlineStr"/>
+      <c r="G1788" t="n">
+        <v>45545856</v>
+      </c>
+      <c r="H1788" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1788" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1788" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1788" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1788" t="inlineStr"/>
+    </row>
+    <row r="1789">
+      <c r="A1789" s="2" t="n">
+        <v>45741</v>
+      </c>
+      <c r="B1789" t="n">
+        <v>719</v>
+      </c>
+      <c r="C1789" t="n">
+        <v>723.0499877929688</v>
+      </c>
+      <c r="D1789" t="n">
+        <v>661.0999755859375</v>
+      </c>
+      <c r="E1789" t="n">
+        <v>674.4500122070312</v>
+      </c>
+      <c r="F1789" t="inlineStr"/>
+      <c r="G1789" t="n">
+        <v>73232998</v>
+      </c>
+      <c r="H1789" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1789" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1789" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1789" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1789" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
